--- a/test/卷详目_模板.xlsx
+++ b/test/卷详目_模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="460" windowWidth="24440" windowHeight="15360"/>
+    <workbookView xWindow="-32700" yWindow="4200" windowWidth="24220" windowHeight="15040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>QL0003</t>
     <phoneticPr fontId="27" type="noConversion"/>
@@ -84,6 +84,85 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>仁王護國般若波羅蜜經（鸠摩罗什）</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUNZ0017</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>仁王護國般若波羅蜜經</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>skIp</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ003</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ004</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUNZ0018</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>11A</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>23B</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>b121</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>C21</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUNZ0019</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ005</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>all del</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUNZ0019</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>b122</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -563,7 +642,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="105">
+  <cellStyleXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -789,6 +868,34 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -857,7 +964,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="105">
+  <cellStyles count="133">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="18"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="20"/>
@@ -927,6 +1034,20 @@
     <cellStyle name="超链接" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
@@ -939,6 +1060,20 @@
     <cellStyle name="访问过的超链接" xfId="100" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="好 2" xfId="67"/>
     <cellStyle name="汇总 2" xfId="68"/>
     <cellStyle name="计算 2" xfId="3"/>
@@ -1261,18 +1396,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="26.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.1640625" style="3" bestFit="1" customWidth="1"/>
@@ -1281,15 +1416,15 @@
     <col min="9" max="9" width="24.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>10</v>
@@ -1309,16 +1444,19 @@
       <c r="I1" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="J1" s="12" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="18">
+    <row r="2" spans="1:10" s="1" customFormat="1" ht="18">
       <c r="A2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>2</v>
       </c>
       <c r="D2" s="9">
         <v>0</v>
@@ -1338,16 +1476,19 @@
       <c r="I2" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="J2" s="11" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:10" s="1" customFormat="1" ht="18">
       <c r="A3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D3" s="9">
         <v>1</v>
@@ -1365,16 +1506,17 @@
         <v>2</v>
       </c>
       <c r="I3" s="11"/>
+      <c r="J3" s="11" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D4" s="9">
         <v>2</v>
@@ -1392,16 +1534,17 @@
         <v>20</v>
       </c>
       <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="18">
+    <row r="5" spans="1:10" ht="18">
       <c r="A5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="C5" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="D5" s="9">
         <v>2</v>
@@ -1419,6 +1562,145 @@
         <v>21</v>
       </c>
       <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="18">
+      <c r="A6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10">
+        <v>26</v>
+      </c>
+      <c r="F6" s="14">
+        <v>235</v>
+      </c>
+      <c r="G6" s="14">
+        <v>251</v>
+      </c>
+      <c r="H6" s="10">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="10">
+        <v>21</v>
+      </c>
+      <c r="F7" s="14">
+        <v>11</v>
+      </c>
+      <c r="G7" s="14">
+        <v>121</v>
+      </c>
+      <c r="H7" s="10">
+        <v>23</v>
+      </c>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="18">
+      <c r="A8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10">
+        <v>21</v>
+      </c>
+      <c r="F8" s="14">
+        <v>11</v>
+      </c>
+      <c r="G8" s="14">
+        <v>121</v>
+      </c>
+      <c r="H8" s="10">
+        <v>23</v>
+      </c>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
+      <c r="A10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>

--- a/test/卷详目_模板.xlsx
+++ b/test/卷详目_模板.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-32700" yWindow="4200" windowWidth="24220" windowHeight="15040"/>
+    <workbookView xWindow="40" yWindow="0" windowWidth="24680" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
   <si>
     <t>QL0003</t>
     <phoneticPr fontId="27" type="noConversion"/>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>C21</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
     <t>HUNZ0019</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -163,6 +159,30 @@
   </si>
   <si>
     <t>b122</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>LQ006</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUNZ0020</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>C22</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>脍左跋三序厢工</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>洪武南藏- 勘误表</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
 </sst>
@@ -642,7 +662,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="133">
+  <cellStyleXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -868,6 +888,10 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -964,7 +988,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="133">
+  <cellStyles count="137">
     <cellStyle name="20% - 强调文字颜色 1 2" xfId="1"/>
     <cellStyle name="20% - 强调文字颜色 2 2" xfId="18"/>
     <cellStyle name="20% - 强调文字颜色 3 2" xfId="20"/>
@@ -1048,6 +1072,8 @@
     <cellStyle name="超链接" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="84" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="86" builtinId="9" hidden="1"/>
@@ -1074,6 +1100,8 @@
     <cellStyle name="访问过的超链接" xfId="128" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="好 2" xfId="67"/>
     <cellStyle name="汇总 2" xfId="68"/>
     <cellStyle name="计算 2" xfId="3"/>
@@ -1396,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1414,6 +1442,7 @@
     <col min="7" max="7" width="13" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.33203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="18">
@@ -1613,7 +1642,7 @@
         <v>121</v>
       </c>
       <c r="H7" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -1639,17 +1668,17 @@
         <v>121</v>
       </c>
       <c r="H8" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="18">
       <c r="A9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>5</v>
@@ -1658,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F9" s="14" t="s">
         <v>26</v>
@@ -1667,17 +1696,17 @@
         <v>28</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="18">
       <c r="A10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>5</v>
@@ -1686,21 +1715,81 @@
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F10" s="14" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="11" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>23</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
+        <v>8</v>
+      </c>
+      <c r="H11" s="10">
+        <v>23</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="10">
+        <v>23</v>
+      </c>
+      <c r="F12" s="14">
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <v>12</v>
+      </c>
+      <c r="H12" s="10">
+        <v>23</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
